--- a/gams_results/gams_salt_st3_25m_forward.xlsx
+++ b/gams_results/gams_salt_st3_25m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
     <t>expr</t>
   </si>
@@ -151,100 +151,88 @@
     <t>AMO_LAG_2</t>
   </si>
   <si>
-    <t>datetime + monthofyear</t>
-  </si>
-  <si>
-    <t>datetime + Qs</t>
-  </si>
-  <si>
-    <t>datetime + Qs_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + Qs_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + Qs_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + Qs_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + QMinho</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + UI</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + NAO</t>
-  </si>
-  <si>
-    <t>datetime + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + EA</t>
-  </si>
-  <si>
-    <t>datetime + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + EAWR</t>
-  </si>
-  <si>
-    <t>datetime + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + SCAND</t>
-  </si>
-  <si>
-    <t>datetime + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + WP</t>
-  </si>
-  <si>
-    <t>datetime + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + AMO</t>
-  </si>
-  <si>
-    <t>datetime + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + AMO_LAG_2</t>
+    <t>QMinho_CUMSUM_3 + datetime</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + monthofyear</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_CUMSUM_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_CUMSUM_3</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO_LAG_2</t>
   </si>
   <si>
     <t>{'datetime': [0.02540605455871723]}</t>
@@ -346,100 +334,88 @@
     <t>{'AMO_LAG_2': [0.0002047440255066998]}</t>
   </si>
   <si>
-    <t>{'datetime': [0.02540605455871723], 'monthofyear': [0.12200261829532529]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'Qs': [0.0007442861594616941]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'Qs_LAG_1': [0.06290867073802948]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'Qs_LAG_2': [0.1910182982564885]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'Qs_CUMSUM_2': [0.01125475259993718]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'Qs_CUMSUM_3': [0.05634892604205627]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'QMinho': [0.2118494390567402]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'QMinho_LAG_1': [0.2886240227803185]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'QMinho_LAG_2': [0.24886941921401626]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'QMinho_CUMSUM_2': [0.272706900729708]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'QMinho_CUMSUM_3': [0.32920685986338527]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'UI': [0.1107145934373246]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'UI_LAG_1': [0.09927073688090692]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'UI_LAG_2': [0.07705168353608186]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'NAO': [0.0102527605357641]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'NAO_LAG_1': [0.004402877948565981]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'NAO_LAG_2': [0.04392231959453412]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EA': [0.005123327277970192]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EA_LAG_1': [0.00038266189184384445]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EA_LAG_2': [0.0017026766567484588]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EAWR': [4.185659372188895e-06]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EAWR_LAG_1': [0.002980547509875761]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'EAWR_LAG_2': [0.00036845544291472395]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'SCAND': [0.011057109100816155]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'SCAND_LAG_1': [0.00046648339922110806]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'SCAND_LAG_2': [0.009056485690482523]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'WP': [0.05498514437107624]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'WP_LAG_1': [0.018040788233044742]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'WP_LAG_2': [0.05015265455990492]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'AMO': [0.002258071611174554]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'AMO_LAG_1': [0.03574653018460559]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.02540605455871723], 'AMO_LAG_2': [0.0002047440255066998]}</t>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'datetime': [0.02540605455871723]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'monthofyear': [0.12200261829532529]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'Qs': [0.0007442861594616941]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'Qs_LAG_1': [0.06290867073802948]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'Qs_LAG_2': [0.1910182982564885]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'Qs_CUMSUM_2': [0.01125475259993718]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'Qs_CUMSUM_3': [0.05634892604205627]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'UI': [0.1107145934373246]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'UI_LAG_1': [0.09927073688090692]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'UI_LAG_2': [0.07705168353608186]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'NAO': [0.0102527605357641]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'NAO_LAG_1': [0.004402877948565981]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'NAO_LAG_2': [0.04392231959453412]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EA': [0.005123327277970192]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EA_LAG_1': [0.00038266189184384445]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EA_LAG_2': [0.0017026766567484588]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EAWR': [4.185659372188895e-06]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EAWR_LAG_1': [0.002980547509875761]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'EAWR_LAG_2': [0.00036845544291472395]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'SCAND': [0.011057109100816155]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'SCAND_LAG_1': [0.00046648339922110806]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'SCAND_LAG_2': [0.009056485690482523]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'WP': [0.05498514437107624]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'WP_LAG_1': [0.018040788233044742]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'WP_LAG_2': [0.05015265455990492]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'AMO': [0.002258071611174554]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'AMO_LAG_1': [0.03574653018460559]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.32920685986338527], 'AMO_LAG_2': [0.0002047440255066998]}</t>
   </si>
   <si>
     <t>[6.602240976150142e-11, 1.1102230246251565e-16]</t>
@@ -523,100 +499,88 @@
     <t>[0.00010014360736376737, 1.1102230246251565e-16]</t>
   </si>
   <si>
-    <t>[3.217759392271091e-12, 3.509939098034209e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.8288815734356376e-11, 4.244908930739477e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[6.490807891168515e-12, 3.4485747590906612e-12, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[8.135936369058072e-12, 6.75663288526307e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.7329249974172853e-12, 2.2426505097428162e-13, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.4188318015205823e-11, 6.180885803175329e-10, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.5131229602616258e-12, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.179545515763493e-11, 6.484148307173143e-08, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.363721689022327e-10, 7.758538793634084e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.2502000263102673e-11, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[9.900635866699758e-11, 4.525269048372138e-13, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.4679046866916678e-10, 8.930992915323621e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.7639558136959295e-11, 1.1057436809513987e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.29316787780931e-10, 0.005383242910766084, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.523359547510154e-12, 0.08587846440617053, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.4069856391074609e-12, 0.017437762526813505, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.188026343967863e-10, 0.07413565987995019, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.3154311801221183e-10, 0.026290101419170764, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.4648837698416628e-11, 0.01312633922162909, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.9089663183535777e-10, 0.5012139538385216, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.35501634754587e-11, 0.002851808200243222, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[7.162492821066735e-12, 0.009919296060602378, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.886901911442919e-11, 0.010103362572939867, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.8479918423585104e-10, 0.40528381125771695, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.036523866737582e-09, 0.15883949240878648, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[7.096189191813096e-10, 0.5174330404290713, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.963314204076141e-10, 0.9208561656870646, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.459483810530628e-10, 0.9056760252641795, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.588507186374045e-10, 0.5645542541916567, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.9295536985163295e-07, 0.001515177363759057, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.479632907423593e-07, 0.002765852297964111, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[6.509898742290687e-08, 0.04583870610698726, 1.1102230246251565e-16]</t>
+    <t>[4.525269048372138e-13, 9.900635866699758e-11, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[7.993605777301127e-15, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.005868878893958485, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[7.17868382626996e-07, 0.007571886210137824, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.11827299387339896, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.5686070164999677e-07, 8.291260296666714e-06, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.420769471660037e-10, 0.007064157961498729, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[9.43984557189026e-10, 0.0008476443921208165, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[4.662792707499364e-09, 0.0491196008159287, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.0802581051905236e-11, 0.09696822805943506, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.3218799823531675, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.27089267485409796, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.6645352591003757e-15, 0.03592951283333656, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.5654144647214707e-14, 0.40923936181831155, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[7.693845560652335e-14, 0.1886450640157702, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.905587213168474e-14, 0.7366003409850052, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.09139765277062506, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.3873467320853883, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.887379141862766e-14, 0.05162459803659947, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.6160256466738174, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.8842705173938157e-12, 0.09236331301829392, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.0813572259849025e-13, 0.5204788162795062, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.9927954147574894, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.7007188800833632, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.8574127259687921, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.176836406102666e-14, 0.00417050641913852, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.6653345369377348e-15, 0.00027283801379163197, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.0879569746450457, 1.1102230246251565e-16]</t>
   </si>
 </sst>
 </file>
@@ -974,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,13 +1014,13 @@
         <v>0.2091457678513798</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1091,13 +1055,13 @@
         <v>0.2447402536406071</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3">
         <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1132,13 +1096,13 @@
         <v>0.2564857426943883</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4">
         <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1173,13 +1137,13 @@
         <v>0.2510550010709628</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L5">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1214,13 +1178,13 @@
         <v>0.2392464579164442</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1255,13 +1219,13 @@
         <v>0.2583308324713341</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L7">
         <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1296,13 +1260,13 @@
         <v>0.2512798026548284</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1337,13 +1301,13 @@
         <v>0.2390985555772202</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9">
         <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1378,13 +1342,13 @@
         <v>0.2323030708116549</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1419,13 +1383,13 @@
         <v>0.2378986868255312</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L11">
         <v>251</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1460,13 +1424,13 @@
         <v>0.2315130205787213</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>251</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1501,13 +1465,13 @@
         <v>0.2251387949329449</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1542,13 +1506,13 @@
         <v>0.2501058411738218</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L14">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1583,13 +1547,13 @@
         <v>0.2487412090764595</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1624,13 +1588,13 @@
         <v>0.2499864078929384</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1665,13 +1629,13 @@
         <v>0.2595852581355476</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1706,13 +1670,13 @@
         <v>0.2597642137121544</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>251</v>
       </c>
       <c r="M18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1747,13 +1711,13 @@
         <v>0.2509550383097365</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>251</v>
       </c>
       <c r="M19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1788,13 +1752,13 @@
         <v>0.2471010011912891</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L20">
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1829,13 +1793,13 @@
         <v>0.2491178191486398</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1870,13 +1834,13 @@
         <v>0.2460037906307745</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L22">
         <v>251</v>
       </c>
       <c r="M22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1911,13 +1875,13 @@
         <v>0.2532236856930781</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1952,13 +1916,13 @@
         <v>0.2519063944935758</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1993,13 +1957,13 @@
         <v>0.2518923371304031</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L25">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2034,13 +1998,13 @@
         <v>0.2564754422864402</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L26">
         <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2075,13 +2039,13 @@
         <v>0.2525682488975272</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L27">
         <v>251</v>
       </c>
       <c r="M27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2116,13 +2080,13 @@
         <v>0.2528164053904013</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L28">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2157,13 +2121,13 @@
         <v>0.253853299107301</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2198,13 +2162,13 @@
         <v>0.2526873724254537</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L30">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2239,13 +2203,13 @@
         <v>0.255923315182424</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L31">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2280,13 +2244,13 @@
         <v>0.2456600400764438</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L32">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2321,13 +2285,13 @@
         <v>0.2407610456624907</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L33">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2362,13 +2326,13 @@
         <v>0.2424331919388145</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2379,37 +2343,37 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>8955.683011234232</v>
+        <v>10524.58851017015</v>
       </c>
       <c r="D35">
-        <v>0.3366383972128787</v>
+        <v>0.476727435207603</v>
       </c>
       <c r="E35">
-        <v>0.3708583266617872</v>
+        <v>0.454346929724867</v>
       </c>
       <c r="F35">
-        <v>0.5934125142753929</v>
+        <v>0.5119333224622893</v>
       </c>
       <c r="G35">
-        <v>0.4039710901392196</v>
+        <v>0.4862016298015158</v>
       </c>
       <c r="H35">
-        <v>-4457.189458278486</v>
+        <v>-5242.19617009872</v>
       </c>
       <c r="I35">
-        <v>0.1084124526366496</v>
+        <v>0.09756830854545089</v>
       </c>
       <c r="J35">
-        <v>0.2106503018028536</v>
+        <v>0.1679084269549791</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L35">
         <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2420,37 +2384,37 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>9017.233844397788</v>
+        <v>8240.876232240529</v>
       </c>
       <c r="D36">
-        <v>0.3306914934294684</v>
+        <v>0.2354581254992278</v>
       </c>
       <c r="E36">
-        <v>0.3659640060024303</v>
+        <v>0.2458237749956976</v>
       </c>
       <c r="F36">
-        <v>0.5987286938219364</v>
+        <v>0.7242432945958703</v>
       </c>
       <c r="G36">
-        <v>0.3988663891092024</v>
+        <v>0.274506936139435</v>
       </c>
       <c r="H36">
-        <v>-4489.583585383773</v>
+        <v>-4112.341773781796</v>
       </c>
       <c r="I36">
-        <v>0.1105863935134749</v>
+        <v>0.1233746493281639</v>
       </c>
       <c r="J36">
-        <v>0.2110103513963597</v>
+        <v>0.2269161934920723</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L36">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2461,37 +2425,37 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>10285.0155653929</v>
+        <v>8704.977673821528</v>
       </c>
       <c r="D37">
-        <v>0.3890610243666294</v>
+        <v>0.2529859034212203</v>
       </c>
       <c r="E37">
-        <v>0.4376224885455208</v>
+        <v>0.2819014295677654</v>
       </c>
       <c r="F37">
-        <v>0.5283697616196583</v>
+        <v>0.6867375252492951</v>
       </c>
       <c r="G37">
-        <v>0.4697699699133103</v>
+        <v>0.3121528413625307</v>
       </c>
       <c r="H37">
-        <v>-5123.469225356377</v>
+        <v>-4344.469025545593</v>
       </c>
       <c r="I37">
-        <v>0.1035404548149419</v>
+        <v>0.1227321341126059</v>
       </c>
       <c r="J37">
-        <v>0.2072485256585261</v>
+        <v>0.2293329048725599</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L37">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2502,37 +2466,37 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>8939.104551804179</v>
+        <v>8551.854770047254</v>
       </c>
       <c r="D38">
-        <v>0.3554976607536707</v>
+        <v>0.2602524256383154</v>
       </c>
       <c r="E38">
-        <v>0.3609563187974146</v>
+        <v>0.2967606850074447</v>
       </c>
       <c r="F38">
-        <v>0.6037179832059576</v>
+        <v>0.6703710901511662</v>
       </c>
       <c r="G38">
-        <v>0.3938351666137674</v>
+        <v>0.3278225458634096</v>
       </c>
       <c r="H38">
-        <v>-4450.514479349658</v>
+        <v>-4263.439235843543</v>
       </c>
       <c r="I38">
-        <v>0.1084626125525386</v>
+        <v>0.1224273527634688</v>
       </c>
       <c r="J38">
-        <v>0.19937409266658</v>
+        <v>0.2307955428193372</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L38">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2543,37 +2507,37 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>10499.7508250538</v>
+        <v>8024.299092156692</v>
       </c>
       <c r="D39">
-        <v>0.3911267684258503</v>
+        <v>0.2153548963872743</v>
       </c>
       <c r="E39">
-        <v>0.4481981291997078</v>
+        <v>0.2164227971932328</v>
       </c>
       <c r="F39">
-        <v>0.5181367699438306</v>
+        <v>0.7556688329696868</v>
       </c>
       <c r="G39">
-        <v>0.4800754176049354</v>
+        <v>0.2433190354598671</v>
       </c>
       <c r="H39">
-        <v>-5230.826631732073</v>
+        <v>-4005.784258355225</v>
       </c>
       <c r="I39">
-        <v>0.1052172767318948</v>
+        <v>0.1233756305589927</v>
       </c>
       <c r="J39">
-        <v>0.2088194289262208</v>
+        <v>0.2265973710245099</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L39">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2584,37 +2548,37 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>9862.118453648802</v>
+        <v>9169.195596913925</v>
       </c>
       <c r="D40">
-        <v>0.3676968962254037</v>
+        <v>0.2968512388968839</v>
       </c>
       <c r="E40">
-        <v>0.4155450999618162</v>
+        <v>0.3679802189037014</v>
       </c>
       <c r="F40">
-        <v>0.5498520288394503</v>
+        <v>0.5971034056980157</v>
       </c>
       <c r="G40">
-        <v>0.4481308771387794</v>
+        <v>0.4007219170201107</v>
       </c>
       <c r="H40">
-        <v>-4912.039749775489</v>
+        <v>-4566.96470893701</v>
       </c>
       <c r="I40">
-        <v>0.1055543769228259</v>
+        <v>0.1189241040434534</v>
       </c>
       <c r="J40">
-        <v>0.2104662983832145</v>
+        <v>0.23582935601331</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L40">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2625,37 +2589,37 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>11515.75255796424</v>
+        <v>8393.386342798618</v>
       </c>
       <c r="D41">
-        <v>0.4962099638176088</v>
+        <v>0.2514256491300343</v>
       </c>
       <c r="E41">
-        <v>0.4866853665777251</v>
+        <v>0.2703587506033504</v>
       </c>
       <c r="F41">
-        <v>0.4815508755052321</v>
+        <v>0.6981869150366521</v>
       </c>
       <c r="G41">
-        <v>0.5170561963317908</v>
+        <v>0.3002963520303118</v>
       </c>
       <c r="H41">
-        <v>-5740.272038408244</v>
+        <v>-4186.598255246676</v>
       </c>
       <c r="I41">
-        <v>0.09635570196610044</v>
+        <v>0.1229187322466226</v>
       </c>
       <c r="J41">
-        <v>0.1705393823724953</v>
+        <v>0.2268796656630257</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L41">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2666,37 +2630,37 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>9625.131196719683</v>
+        <v>8767.548473919409</v>
       </c>
       <c r="D42">
-        <v>0.4089129891198096</v>
+        <v>0.2673294590045363</v>
       </c>
       <c r="E42">
-        <v>0.3951178292826245</v>
+        <v>0.2852861960472001</v>
       </c>
       <c r="F42">
-        <v>0.5702595283977561</v>
+        <v>0.6832996764014253</v>
       </c>
       <c r="G42">
-        <v>0.4277663513787371</v>
+        <v>0.3156379896523613</v>
       </c>
       <c r="H42">
-        <v>-4794.966419025774</v>
+        <v>-4375.970864212368</v>
       </c>
       <c r="I42">
-        <v>0.1011222829862733</v>
+        <v>0.1219276899005377</v>
       </c>
       <c r="J42">
-        <v>0.1855344686651078</v>
+        <v>0.2249806588933615</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L42">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2707,37 +2671,37 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>8242.271415588806</v>
+        <v>8093.845075869706</v>
       </c>
       <c r="D43">
-        <v>0.2765738339462126</v>
+        <v>0.2170858080648476</v>
       </c>
       <c r="E43">
-        <v>0.2883329507895896</v>
+        <v>0.2188688809584592</v>
       </c>
       <c r="F43">
-        <v>0.6783829120593768</v>
+        <v>0.7531900268238626</v>
       </c>
       <c r="G43">
-        <v>0.3192968669430003</v>
+        <v>0.2459170847398015</v>
       </c>
       <c r="H43">
-        <v>-4106.091956681714</v>
+        <v>-4041.131874500732</v>
       </c>
       <c r="I43">
-        <v>0.129855369526809</v>
+        <v>0.1244773297668712</v>
       </c>
       <c r="J43">
-        <v>0.2416777610748966</v>
+        <v>0.2269586830468418</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L43">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2748,37 +2712,37 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>10561.22540340504</v>
+        <v>8257.976717901247</v>
       </c>
       <c r="D44">
-        <v>0.4531709060708885</v>
+        <v>0.2388087351691601</v>
       </c>
       <c r="E44">
-        <v>0.4453565052607243</v>
+        <v>0.232692155102149</v>
       </c>
       <c r="F44">
-        <v>0.5211975205246526</v>
+        <v>0.7385702837424204</v>
       </c>
       <c r="G44">
-        <v>0.4771360307119142</v>
+        <v>0.2605783859640324</v>
       </c>
       <c r="H44">
-        <v>-5262.785755163946</v>
+        <v>-4123.235615083423</v>
       </c>
       <c r="I44">
-        <v>0.09664250735155815</v>
+        <v>0.1212872997508233</v>
       </c>
       <c r="J44">
-        <v>0.1780559550165519</v>
+        <v>0.2212731152613147</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L44">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2789,37 +2753,37 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>10524.58851017016</v>
+        <v>8107.152902920447</v>
       </c>
       <c r="D45">
-        <v>0.4767274352076333</v>
+        <v>0.2058327945524724</v>
       </c>
       <c r="E45">
-        <v>0.4543469297248667</v>
+        <v>0.2220817981356337</v>
       </c>
       <c r="F45">
-        <v>0.5119333224622895</v>
+        <v>0.7497130015995432</v>
       </c>
       <c r="G45">
-        <v>0.4862016298015155</v>
+        <v>0.2493395888141827</v>
       </c>
       <c r="H45">
-        <v>-5242.196170098723</v>
+        <v>-4047.461688883152</v>
       </c>
       <c r="I45">
-        <v>0.09756830854545946</v>
+        <v>0.1244731374385301</v>
       </c>
       <c r="J45">
-        <v>0.1679084269549587</v>
+        <v>0.2328938540789199</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L45">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2830,37 +2794,37 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>8928.279571418972</v>
+        <v>8104.359925354537</v>
       </c>
       <c r="D46">
-        <v>0.2641691393488526</v>
+        <v>0.2095617915965495</v>
       </c>
       <c r="E46">
-        <v>0.344311555554444</v>
+        <v>0.2219059512253733</v>
       </c>
       <c r="F46">
-        <v>0.6211604727465636</v>
+        <v>0.7498972295829723</v>
       </c>
       <c r="G46">
-        <v>0.3767226996817393</v>
+        <v>0.2491528478714516</v>
       </c>
       <c r="H46">
-        <v>-4447.98168938558</v>
+        <v>-4046.054675630732</v>
       </c>
       <c r="I46">
-        <v>0.142010694142829</v>
+        <v>0.1246585675208178</v>
       </c>
       <c r="J46">
-        <v>0.325970670476024</v>
+        <v>0.2313620289958258</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L46">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2871,37 +2835,37 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>8714.764591687681</v>
+        <v>8255.340700801866</v>
       </c>
       <c r="D47">
-        <v>0.3190843031601276</v>
+        <v>0.2400248116576409</v>
       </c>
       <c r="E47">
-        <v>0.3348317708874327</v>
+        <v>0.24473702838046</v>
       </c>
       <c r="F47">
-        <v>0.6304643450845991</v>
+        <v>0.7254663366699071</v>
       </c>
       <c r="G47">
-        <v>0.3672038003618319</v>
+        <v>0.2733490970096399</v>
       </c>
       <c r="H47">
-        <v>-4340.329023242868</v>
+        <v>-4119.943165871773</v>
       </c>
       <c r="I47">
-        <v>0.1200708468635275</v>
+        <v>0.1219100183009558</v>
       </c>
       <c r="J47">
-        <v>0.2181879221387494</v>
+        <v>0.2239272692557794</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L47">
         <v>251</v>
       </c>
       <c r="M47" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2912,37 +2876,37 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>8227.549095226741</v>
+        <v>8209.63370203201</v>
       </c>
       <c r="D48">
-        <v>0.3085545781516575</v>
+        <v>0.2433721919722817</v>
       </c>
       <c r="E48">
-        <v>0.2992109737384485</v>
+        <v>0.2410975032789602</v>
       </c>
       <c r="F48">
-        <v>0.6666828608573979</v>
+        <v>0.7292827223667152</v>
       </c>
       <c r="G48">
-        <v>0.3307054742580613</v>
+        <v>0.2695151085658293</v>
       </c>
       <c r="H48">
-        <v>-4096.726024204147</v>
+        <v>-4097.063142986386</v>
       </c>
       <c r="I48">
-        <v>0.1166577066736702</v>
+        <v>0.1216233448666655</v>
       </c>
       <c r="J48">
-        <v>0.1999461140100816</v>
+        <v>0.221411820020811</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L48">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2953,37 +2917,37 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>8114.555197218124</v>
+        <v>8278.246771349206</v>
       </c>
       <c r="D49">
-        <v>0.2210491556918793</v>
+        <v>0.2317177289883437</v>
       </c>
       <c r="E49">
-        <v>0.2842362261648514</v>
+        <v>0.2467500042895108</v>
       </c>
       <c r="F49">
-        <v>0.6823506358909253</v>
+        <v>0.7233507172572002</v>
       </c>
       <c r="G49">
-        <v>0.3151109500655811</v>
+        <v>0.2754680047852587</v>
       </c>
       <c r="H49">
-        <v>-4041.243759154914</v>
+        <v>-4131.376583637746</v>
       </c>
       <c r="I49">
-        <v>0.139883829122776</v>
+        <v>0.1217654471157367</v>
       </c>
       <c r="J49">
-        <v>0.2948137460352582</v>
+        <v>0.2285238352775591</v>
       </c>
       <c r="K49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L49">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2994,37 +2958,37 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>8306.678990480137</v>
+        <v>8133.317318770029</v>
       </c>
       <c r="D50">
-        <v>0.2557993098585812</v>
+        <v>0.2334203500985361</v>
       </c>
       <c r="E50">
-        <v>0.3142716849943853</v>
+        <v>0.2346095692989422</v>
       </c>
       <c r="F50">
-        <v>0.6508871022113267</v>
+        <v>0.736114832147106</v>
       </c>
       <c r="G50">
-        <v>0.3463462384050692</v>
+        <v>0.2626617344108337</v>
       </c>
       <c r="H50">
-        <v>-4134.764274682346</v>
+        <v>-4058.912688098797</v>
       </c>
       <c r="I50">
-        <v>0.1211182133620455</v>
+        <v>0.1229508553109005</v>
       </c>
       <c r="J50">
-        <v>0.234208503726089</v>
+        <v>0.2244051480849809</v>
       </c>
       <c r="K50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L50">
         <v>251</v>
       </c>
       <c r="M50" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3035,37 +2999,37 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>7951.214682528156</v>
+        <v>8128.068474034707</v>
       </c>
       <c r="D51">
-        <v>0.2517972551229803</v>
+        <v>0.2147115648152498</v>
       </c>
       <c r="E51">
-        <v>0.2866186067071904</v>
+        <v>0.2238983701417465</v>
       </c>
       <c r="F51">
-        <v>0.6792215893982119</v>
+        <v>0.7477876604676305</v>
       </c>
       <c r="G51">
-        <v>0.3177612785263163</v>
+        <v>0.2512696258419742</v>
       </c>
       <c r="H51">
-        <v>-3957.030040358567</v>
+        <v>-4057.918539655551</v>
       </c>
       <c r="I51">
-        <v>0.1165794062571282</v>
+        <v>0.1249283694722568</v>
       </c>
       <c r="J51">
-        <v>0.2218335663478475</v>
+        <v>0.228732329111334</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L51">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3076,37 +3040,37 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>7966.924252232556</v>
+        <v>7996.814742641654</v>
       </c>
       <c r="D52">
-        <v>0.2597910807472346</v>
+        <v>0.2119498272703868</v>
       </c>
       <c r="E52">
-        <v>0.2887205475711434</v>
+        <v>0.2128942673487046</v>
       </c>
       <c r="F52">
-        <v>0.6770182292470995</v>
+        <v>0.7594594735124289</v>
       </c>
       <c r="G52">
-        <v>0.3199570691662004</v>
+        <v>0.2395523704037081</v>
       </c>
       <c r="H52">
-        <v>-3964.748892192843</v>
+        <v>-3992.212980201814</v>
       </c>
       <c r="I52">
-        <v>0.1161128974930916</v>
+        <v>0.1241065777906799</v>
       </c>
       <c r="J52">
-        <v>0.2186961028261554</v>
+        <v>0.2269751885445604</v>
       </c>
       <c r="K52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>251</v>
       </c>
       <c r="M52" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3117,37 +3081,37 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>8362.797450174286</v>
+        <v>8264.492588392122</v>
       </c>
       <c r="D53">
-        <v>0.2546486673272444</v>
+        <v>0.245622756641923</v>
       </c>
       <c r="E53">
-        <v>0.3192345926717874</v>
+        <v>0.2455173578619596</v>
       </c>
       <c r="F53">
-        <v>0.6458029359197258</v>
+        <v>0.7246468418345179</v>
       </c>
       <c r="G53">
-        <v>0.3514493322285929</v>
+        <v>0.2741705792911133</v>
       </c>
       <c r="H53">
-        <v>-4162.687518699644</v>
+        <v>-4124.515339989824</v>
       </c>
       <c r="I53">
-        <v>0.1152926878277933</v>
+        <v>0.1206677172863535</v>
       </c>
       <c r="J53">
-        <v>0.2320558595400375</v>
+        <v>0.2217879979724836</v>
       </c>
       <c r="K53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L53">
         <v>251</v>
       </c>
       <c r="M53" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3158,37 +3122,37 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>7839.09946335929</v>
+        <v>8123.836271369278</v>
       </c>
       <c r="D54">
-        <v>0.2423921662500031</v>
+        <v>0.206375226263359</v>
       </c>
       <c r="E54">
-        <v>0.2626500596143904</v>
+        <v>0.2239886136900974</v>
       </c>
       <c r="F54">
-        <v>0.7046990691169457</v>
+        <v>0.7476767633165173</v>
       </c>
       <c r="G54">
-        <v>0.2925549822869549</v>
+        <v>0.2513668517160349</v>
       </c>
       <c r="H54">
-        <v>-3903.33987668733</v>
+        <v>-4055.730279565914</v>
       </c>
       <c r="I54">
-        <v>0.1327594588700784</v>
+        <v>0.1258368990992307</v>
       </c>
       <c r="J54">
-        <v>0.2464616998628078</v>
+        <v>0.2328255684590741</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L54">
         <v>251</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3199,37 +3163,37 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>8024.735554447253</v>
+        <v>8421.550892631878</v>
       </c>
       <c r="D55">
-        <v>0.220971066416375</v>
+        <v>0.2569445387267258</v>
       </c>
       <c r="E55">
-        <v>0.2772242337179674</v>
+        <v>0.2710841184891583</v>
       </c>
       <c r="F55">
-        <v>0.6895897020065381</v>
+        <v>0.6974932110120788</v>
       </c>
       <c r="G55">
-        <v>0.3078097100390248</v>
+        <v>0.3010376774439998</v>
       </c>
       <c r="H55">
-        <v>-3996.296900221215</v>
+        <v>-4200.927144331816</v>
       </c>
       <c r="I55">
-        <v>0.1412605130366738</v>
+        <v>0.1207044090968734</v>
       </c>
       <c r="J55">
-        <v>0.2949219899726892</v>
+        <v>0.2242887278457594</v>
       </c>
       <c r="K55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L55">
         <v>251</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3240,37 +3204,37 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>8107.834194539536</v>
+        <v>8112.215470520175</v>
       </c>
       <c r="D56">
-        <v>0.2282354167688534</v>
+        <v>0.2327330469507266</v>
       </c>
       <c r="E56">
-        <v>0.2998885241700401</v>
+        <v>0.233110394232416</v>
       </c>
       <c r="F56">
-        <v>0.6655424265915397</v>
+        <v>0.737685645649518</v>
       </c>
       <c r="G56">
-        <v>0.3315364768427822</v>
+        <v>0.2610763630309217</v>
       </c>
       <c r="H56">
-        <v>-4035.206389349767</v>
+        <v>-4048.313815124137</v>
       </c>
       <c r="I56">
-        <v>0.1203932221857202</v>
+        <v>0.1213129986011692</v>
       </c>
       <c r="J56">
-        <v>0.2379566374422634</v>
+        <v>0.2235704271511744</v>
       </c>
       <c r="K56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L56">
         <v>251</v>
       </c>
       <c r="M56" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3281,37 +3245,37 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>8136.301137228462</v>
+        <v>8015.82965218292</v>
       </c>
       <c r="D57">
-        <v>0.1916888935792185</v>
+        <v>0.2131902403599233</v>
       </c>
       <c r="E57">
-        <v>0.3013911860390049</v>
+        <v>0.2149616206560376</v>
       </c>
       <c r="F57">
-        <v>0.6640351128607715</v>
+        <v>0.7572463309770636</v>
       </c>
       <c r="G57">
-        <v>0.3330802308838278</v>
+        <v>0.2417594841854557</v>
       </c>
       <c r="H57">
-        <v>-4049.558750418531</v>
+        <v>-4001.661065731665</v>
       </c>
       <c r="I57">
-        <v>0.1248463788263185</v>
+        <v>0.1235011932390306</v>
       </c>
       <c r="J57">
-        <v>0.2775844423279004</v>
+        <v>0.2270600023197489</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L57">
         <v>251</v>
       </c>
       <c r="M57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3322,37 +3286,37 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>7661.772294740354</v>
+        <v>7991.663783758692</v>
       </c>
       <c r="D58">
-        <v>0.1770563294457062</v>
+        <v>0.213169546136947</v>
       </c>
       <c r="E58">
-        <v>0.2114776964972793</v>
+        <v>0.2128013315017717</v>
       </c>
       <c r="F58">
-        <v>0.7600158696417442</v>
+        <v>0.7595466293157576</v>
       </c>
       <c r="G58">
-        <v>0.2380587541128253</v>
+        <v>0.2394535914722183</v>
       </c>
       <c r="H58">
-        <v>-3820.208272795657</v>
+        <v>-3989.580470222168</v>
       </c>
       <c r="I58">
-        <v>0.1523606792258461</v>
+        <v>0.1237957462221854</v>
       </c>
       <c r="J58">
-        <v>0.3301174762585671</v>
+        <v>0.226640491285079</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L58">
         <v>251</v>
       </c>
       <c r="M58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3363,37 +3327,37 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>7793.654634685112</v>
+        <v>8111.774040658053</v>
       </c>
       <c r="D59">
-        <v>0.1956163274816254</v>
+        <v>0.2185441205269192</v>
       </c>
       <c r="E59">
-        <v>0.2235355657073457</v>
+        <v>0.2232757464492904</v>
       </c>
       <c r="F59">
-        <v>0.7471780636809692</v>
+        <v>0.7484209374154756</v>
       </c>
       <c r="G59">
-        <v>0.2509610014811163</v>
+        <v>0.2506106271550034</v>
       </c>
       <c r="H59">
-        <v>-3886.148407710778</v>
+        <v>-4049.646892305482</v>
       </c>
       <c r="I59">
-        <v>0.1470709689854815</v>
+        <v>0.1228305150045246</v>
       </c>
       <c r="J59">
-        <v>0.30512103778404</v>
+        <v>0.2274780270036902</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L59">
         <v>251</v>
       </c>
       <c r="M59" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3404,37 +3368,37 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>7559.95125376981</v>
+        <v>8434.485602009623</v>
       </c>
       <c r="D60">
-        <v>0.1793219014430595</v>
+        <v>0.2396387725496733</v>
       </c>
       <c r="E60">
-        <v>0.2018586171501625</v>
+        <v>0.2495464656195774</v>
       </c>
       <c r="F60">
-        <v>0.7703156160065567</v>
+        <v>0.7207826220845112</v>
       </c>
       <c r="G60">
-        <v>0.2277080448399378</v>
+        <v>0.2783395224631753</v>
       </c>
       <c r="H60">
-        <v>-3769.305012758143</v>
+        <v>-4211.114001733757</v>
       </c>
       <c r="I60">
-        <v>0.1488393697399866</v>
+        <v>0.1191197836580495</v>
       </c>
       <c r="J60">
-        <v>0.3159073214596464</v>
+        <v>0.2243161128810528</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L60">
         <v>251</v>
       </c>
       <c r="M60" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3445,37 +3409,37 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>7530.186439034222</v>
+        <v>8418.101813618578</v>
       </c>
       <c r="D61">
-        <v>0.1769845182862467</v>
+        <v>0.2397397913560491</v>
       </c>
       <c r="E61">
-        <v>0.1993840915986859</v>
+        <v>0.2482011454710424</v>
       </c>
       <c r="F61">
-        <v>0.7729613836635325</v>
+        <v>0.7221916190280248</v>
       </c>
       <c r="G61">
-        <v>0.2250361689149346</v>
+        <v>0.2769277203161552</v>
       </c>
       <c r="H61">
-        <v>-3754.367089781123</v>
+        <v>-4202.925741628105</v>
       </c>
       <c r="I61">
-        <v>0.1496401905512856</v>
+        <v>0.1191684436615644</v>
       </c>
       <c r="J61">
-        <v>0.3194044862742109</v>
+        <v>0.2240482957323947</v>
       </c>
       <c r="K61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L61">
         <v>251</v>
       </c>
       <c r="M61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3486,201 +3450,37 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>7500.974025782693</v>
+        <v>8291.745623606635</v>
       </c>
       <c r="D62">
-        <v>0.177574138786812</v>
+        <v>0.2376334988972371</v>
       </c>
       <c r="E62">
-        <v>0.1965769274913653</v>
+        <v>0.237896702635923</v>
       </c>
       <c r="F62">
-        <v>0.7759803535292229</v>
+        <v>0.7330050724643652</v>
       </c>
       <c r="G62">
-        <v>0.2220014504519663</v>
+        <v>0.2660856305040022</v>
       </c>
       <c r="H62">
-        <v>-3739.76051691472</v>
+        <v>-4139.737443562939</v>
       </c>
       <c r="I62">
-        <v>0.1504786222567704</v>
+        <v>0.1187914802268756</v>
       </c>
       <c r="J62">
-        <v>0.3181419095651079</v>
+        <v>0.2219963379128425</v>
       </c>
       <c r="K62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L62">
         <v>251</v>
       </c>
       <c r="M62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63">
-        <v>7647.907557802728</v>
-      </c>
-      <c r="D63">
-        <v>0.1805658532329179</v>
-      </c>
-      <c r="E63">
-        <v>0.2105018045377675</v>
-      </c>
-      <c r="F63">
-        <v>0.7610478991300513</v>
-      </c>
-      <c r="G63">
-        <v>0.2370110351484744</v>
-      </c>
-      <c r="H63">
-        <v>-3813.228075284602</v>
-      </c>
-      <c r="I63">
-        <v>0.1490219780730068</v>
-      </c>
-      <c r="J63">
-        <v>0.3188636961541469</v>
-      </c>
-      <c r="K63" t="s">
-        <v>138</v>
-      </c>
-      <c r="L63">
-        <v>251</v>
-      </c>
-      <c r="M63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64">
-        <v>8004.223636874037</v>
-      </c>
-      <c r="D64">
-        <v>0.2110802212487622</v>
-      </c>
-      <c r="E64">
-        <v>0.2413647210014263</v>
-      </c>
-      <c r="F64">
-        <v>0.7283617637699757</v>
-      </c>
-      <c r="G64">
-        <v>0.2698907978247799</v>
-      </c>
-      <c r="H64">
-        <v>-3991.535584588186</v>
-      </c>
-      <c r="I64">
-        <v>0.1397358199496245</v>
-      </c>
-      <c r="J64">
-        <v>0.2888467655060212</v>
-      </c>
-      <c r="K64" t="s">
-        <v>139</v>
-      </c>
-      <c r="L64">
-        <v>251</v>
-      </c>
-      <c r="M64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>8164.751291367063</v>
-      </c>
-      <c r="D65">
-        <v>0.2727639214420821</v>
-      </c>
-      <c r="E65">
-        <v>0.2878369024459443</v>
-      </c>
-      <c r="F65">
-        <v>0.6786541883100593</v>
-      </c>
-      <c r="G65">
-        <v>0.3188472775705959</v>
-      </c>
-      <c r="H65">
-        <v>-4066.404764750644</v>
-      </c>
-      <c r="I65">
-        <v>0.1257389106351693</v>
-      </c>
-      <c r="J65">
-        <v>0.2300065895326857</v>
-      </c>
-      <c r="K65" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65">
-        <v>251</v>
-      </c>
-      <c r="M65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66">
-        <v>7829.90190190074</v>
-      </c>
-      <c r="D66">
-        <v>0.2058381996215741</v>
-      </c>
-      <c r="E66">
-        <v>0.2261748632687793</v>
-      </c>
-      <c r="F66">
-        <v>0.7443998217396023</v>
-      </c>
-      <c r="G66">
-        <v>0.253772842797967</v>
-      </c>
-      <c r="H66">
-        <v>-3904.366602133981</v>
-      </c>
-      <c r="I66">
-        <v>0.1418016775562823</v>
-      </c>
-      <c r="J66">
-        <v>0.2910826024768416</v>
-      </c>
-      <c r="K66" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66">
-        <v>251</v>
-      </c>
-      <c r="M66" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
